--- a/s_d/麻吉1月.xlsx
+++ b/s_d/麻吉1月.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1.1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="1.2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="249">
   <si>
     <t>202001012140281749230</t>
   </si>
@@ -385,6 +385,384 @@
   </si>
   <si>
     <t>2020-01-01 12:01</t>
+  </si>
+  <si>
+    <t>202001022221141642394</t>
+  </si>
+  <si>
+    <t>2020-01-02 22:21</t>
+  </si>
+  <si>
+    <t>202001022220561814425</t>
+  </si>
+  <si>
+    <t>202001022220391638840</t>
+  </si>
+  <si>
+    <t>2020-01-02 22:20</t>
+  </si>
+  <si>
+    <t>202001022220151876103</t>
+  </si>
+  <si>
+    <t>202001022220021689278</t>
+  </si>
+  <si>
+    <t>202001022219501860300</t>
+  </si>
+  <si>
+    <t>2020-01-02 22:19</t>
+  </si>
+  <si>
+    <t>202001022212261997325</t>
+  </si>
+  <si>
+    <t>2020-01-02 22:12</t>
+  </si>
+  <si>
+    <t>202001022212051974034</t>
+  </si>
+  <si>
+    <t>202001022211381198219</t>
+  </si>
+  <si>
+    <t>2020-01-02 22:11</t>
+  </si>
+  <si>
+    <t>202001022211231828148</t>
+  </si>
+  <si>
+    <t>202001022211091573310</t>
+  </si>
+  <si>
+    <t>202001022205351976019</t>
+  </si>
+  <si>
+    <t>2020-01-02 22:05</t>
+  </si>
+  <si>
+    <t>202001022205141502058</t>
+  </si>
+  <si>
+    <t>202001022203311897594</t>
+  </si>
+  <si>
+    <t>2020-01-02 22:03</t>
+  </si>
+  <si>
+    <t>202001022203091204132</t>
+  </si>
+  <si>
+    <t>202001022202561342481</t>
+  </si>
+  <si>
+    <t>202001022202401474840</t>
+  </si>
+  <si>
+    <t>2020-01-02 22:02</t>
+  </si>
+  <si>
+    <t>202001022159201372918</t>
+  </si>
+  <si>
+    <t>2020-01-02 21:59</t>
+  </si>
+  <si>
+    <t>202001022159001157681</t>
+  </si>
+  <si>
+    <t>202001022158381601105</t>
+  </si>
+  <si>
+    <t>2020-01-02 21:58</t>
+  </si>
+  <si>
+    <t>202001022148231601984</t>
+  </si>
+  <si>
+    <t>2020-01-02 21:48</t>
+  </si>
+  <si>
+    <t>202001022148081162010</t>
+  </si>
+  <si>
+    <t>202001022147501420914</t>
+  </si>
+  <si>
+    <t>2020-01-02 21:47</t>
+  </si>
+  <si>
+    <t>202001022147231364177</t>
+  </si>
+  <si>
+    <t>202001022135421688517</t>
+  </si>
+  <si>
+    <t>2020-01-02 21:35</t>
+  </si>
+  <si>
+    <t>202001022135221323670</t>
+  </si>
+  <si>
+    <t>202001022135041892126</t>
+  </si>
+  <si>
+    <t>202001022134511678106</t>
+  </si>
+  <si>
+    <t>2020-01-02 21:34</t>
+  </si>
+  <si>
+    <t>202001022132551109349</t>
+  </si>
+  <si>
+    <t>2020-01-02 21:33</t>
+  </si>
+  <si>
+    <t>202001022132371653733</t>
+  </si>
+  <si>
+    <t>2020-01-02 21:32</t>
+  </si>
+  <si>
+    <t>202001022127501375910</t>
+  </si>
+  <si>
+    <t>2020-01-02 21:27</t>
+  </si>
+  <si>
+    <t>202001022127041732700</t>
+  </si>
+  <si>
+    <t>202001022126331897523</t>
+  </si>
+  <si>
+    <t>2020-01-02 21:26</t>
+  </si>
+  <si>
+    <t>202001022125081575735</t>
+  </si>
+  <si>
+    <t>2020-01-02 21:25</t>
+  </si>
+  <si>
+    <t>202001022124521734458</t>
+  </si>
+  <si>
+    <t>2020-01-02 21:24</t>
+  </si>
+  <si>
+    <t>202001022102141695524</t>
+  </si>
+  <si>
+    <t>2020-01-02 21:02</t>
+  </si>
+  <si>
+    <t>202001022101571779246</t>
+  </si>
+  <si>
+    <t>202001022101291405426</t>
+  </si>
+  <si>
+    <t>2020-01-02 21:01</t>
+  </si>
+  <si>
+    <t>202001022101151444762</t>
+  </si>
+  <si>
+    <t>202001022101001298502</t>
+  </si>
+  <si>
+    <t>202001021830481451354</t>
+  </si>
+  <si>
+    <t>2020-01-02 18:30</t>
+  </si>
+  <si>
+    <t>202001021830291159561</t>
+  </si>
+  <si>
+    <t>202001021830151795409</t>
+  </si>
+  <si>
+    <t>202001021830001954039</t>
+  </si>
+  <si>
+    <t>202001021829471683781</t>
+  </si>
+  <si>
+    <t>2020-01-02 18:29</t>
+  </si>
+  <si>
+    <t>202001021829191694915</t>
+  </si>
+  <si>
+    <t>202001021827251443958</t>
+  </si>
+  <si>
+    <t>2020-01-02 18:27</t>
+  </si>
+  <si>
+    <t>202001021538041428257</t>
+  </si>
+  <si>
+    <t>2020-01-02 15:38</t>
+  </si>
+  <si>
+    <t>202001021537531702470</t>
+  </si>
+  <si>
+    <t>2020-01-02 15:37</t>
+  </si>
+  <si>
+    <t>202001021537421563081</t>
+  </si>
+  <si>
+    <t>202001021537271268027</t>
+  </si>
+  <si>
+    <t>202001021530121966730</t>
+  </si>
+  <si>
+    <t>2020-01-02 15:30</t>
+  </si>
+  <si>
+    <t>202001021530011269034</t>
+  </si>
+  <si>
+    <t>202001021529451270629</t>
+  </si>
+  <si>
+    <t>2020-01-02 15:29</t>
+  </si>
+  <si>
+    <t>202001021514281353455</t>
+  </si>
+  <si>
+    <t>2020-01-02 15:14</t>
+  </si>
+  <si>
+    <t>202001021514161350221</t>
+  </si>
+  <si>
+    <t>202001021514031833214</t>
+  </si>
+  <si>
+    <t>202001021513491441614</t>
+  </si>
+  <si>
+    <t>2020-01-02 15:13</t>
+  </si>
+  <si>
+    <t>202001021459531426630</t>
+  </si>
+  <si>
+    <t>2020-01-02 14:59</t>
+  </si>
+  <si>
+    <t>202001021459411609643</t>
+  </si>
+  <si>
+    <t>202001021459291403351</t>
+  </si>
+  <si>
+    <t>202001021445551636842</t>
+  </si>
+  <si>
+    <t>2020-01-02 14:46</t>
+  </si>
+  <si>
+    <t>202001021445381305383</t>
+  </si>
+  <si>
+    <t>2020-01-02 14:45</t>
+  </si>
+  <si>
+    <t>202001021445231399150</t>
+  </si>
+  <si>
+    <t>202001021445081991687</t>
+  </si>
+  <si>
+    <t>202001021430361217140</t>
+  </si>
+  <si>
+    <t>2020-01-02 14:30</t>
+  </si>
+  <si>
+    <t>202001021430251908699</t>
+  </si>
+  <si>
+    <t>202001021430131956410</t>
+  </si>
+  <si>
+    <t>202001021430011725560</t>
+  </si>
+  <si>
+    <t>202001021429501246292</t>
+  </si>
+  <si>
+    <t>2020-01-02 14:29</t>
+  </si>
+  <si>
+    <t>202001021429381995553</t>
+  </si>
+  <si>
+    <t>202001021329121768546</t>
+  </si>
+  <si>
+    <t>2020-01-02 13:29</t>
+  </si>
+  <si>
+    <t>202001021329011387490</t>
+  </si>
+  <si>
+    <t>202001021328411280901</t>
+  </si>
+  <si>
+    <t>2020-01-02 13:28</t>
+  </si>
+  <si>
+    <t>202001021328221384189</t>
+  </si>
+  <si>
+    <t>202001021328111592069</t>
+  </si>
+  <si>
+    <t>202001021144181462614</t>
+  </si>
+  <si>
+    <t>2020-01-02 11:44</t>
+  </si>
+  <si>
+    <t>202001021144071267995</t>
+  </si>
+  <si>
+    <t>202001021143561752675</t>
+  </si>
+  <si>
+    <t>202001021113521271573</t>
+  </si>
+  <si>
+    <t>2020-01-02 11:13</t>
+  </si>
+  <si>
+    <t>202001021113331394250</t>
+  </si>
+  <si>
+    <t>202001021113201263363</t>
+  </si>
+  <si>
+    <t>202001021041411995246</t>
+  </si>
+  <si>
+    <t>2020-01-02 10:41</t>
+  </si>
+  <si>
+    <t>202001021041251887495</t>
+  </si>
+  <si>
+    <t>202001021041051102701</t>
   </si>
 </sst>
 </file>
@@ -393,11 +771,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -414,27 +792,28 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -442,14 +821,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -464,14 +835,46 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -485,8 +888,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -501,69 +920,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -584,7 +948,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -602,109 +1068,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -722,7 +1098,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -734,31 +1122,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -772,70 +1136,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -869,153 +1174,212 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1024,8 +1388,8 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1376,8 +1740,8 @@
   <sheetPr/>
   <dimension ref="A1:P73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M4" sqref="M4:O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1386,118 +1750,118 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="1">
+      <c r="A1" s="3">
         <v>39757</v>
       </c>
-      <c r="B1" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1">
+      <c r="D1" s="3">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3">
         <v>505</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="3">
         <v>505</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="G1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="1">
+      <c r="A2" s="3">
         <v>39756</v>
       </c>
-      <c r="B2" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="3">
         <v>3</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="3">
         <v>1063</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="3">
         <v>1063</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="G2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="1">
+      <c r="A3" s="3">
         <v>39755</v>
       </c>
-      <c r="B3" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="3">
         <v>3</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="3">
         <v>479</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="3">
         <v>479</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="1" t="s">
+      <c r="G3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="1">
+      <c r="A4" s="3">
         <v>39753</v>
       </c>
-      <c r="B4" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="3">
         <v>3</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="3">
         <v>389</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="3">
         <v>389</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I4" s="1" t="s">
+      <c r="G4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="M4" s="2" t="s">
@@ -1510,31 +1874,31 @@
       <c r="P4" s="2"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="1">
+      <c r="A5" s="3">
         <v>39752</v>
       </c>
-      <c r="B5" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="B5" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="3">
         <v>3</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="3">
         <v>1150</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="3">
         <v>1150</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I5" s="1" t="s">
+      <c r="G5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="M5" s="2" t="s">
@@ -1547,68 +1911,68 @@
       <c r="P5" s="2"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="1">
+      <c r="A6" s="3">
         <v>39751</v>
       </c>
-      <c r="B6" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="B6" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="1">
-        <v>2</v>
-      </c>
-      <c r="E6" s="1">
+      <c r="D6" s="3">
+        <v>2</v>
+      </c>
+      <c r="E6" s="3">
         <v>167</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="3">
         <v>167</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I6" s="1" t="s">
+      <c r="G6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>14</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="N6" s="3">
+      <c r="N6" s="2">
         <v>50910.9</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="1">
+      <c r="A7" s="3">
         <v>39750</v>
       </c>
-      <c r="B7" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="B7" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="1">
-        <v>2</v>
-      </c>
-      <c r="E7" s="1">
+      <c r="D7" s="3">
+        <v>2</v>
+      </c>
+      <c r="E7" s="3">
         <v>157</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="3">
         <v>157</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I7" s="1" t="s">
+      <c r="G7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>14</v>
       </c>
       <c r="M7" s="2" t="s">
@@ -1621,1916 +1985,1916 @@
       <c r="P7" s="2"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="1">
+      <c r="A8" s="3">
         <v>39749</v>
       </c>
-      <c r="B8" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="B8" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="1">
-        <v>2</v>
-      </c>
-      <c r="E8" s="1">
+      <c r="D8" s="3">
+        <v>2</v>
+      </c>
+      <c r="E8" s="3">
         <v>648</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="3">
         <v>648</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="G8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="1">
+      <c r="A9" s="3">
         <v>39748</v>
       </c>
-      <c r="B9" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="B9" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1">
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3">
         <v>190</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="3">
         <v>190</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I9" s="1" t="s">
+      <c r="G9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="1">
+      <c r="A10" s="3">
         <v>39747</v>
       </c>
-      <c r="B10" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="B10" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="3">
         <v>3</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="3">
         <v>307</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="3">
         <v>307</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I10" s="1" t="s">
+      <c r="G10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I10" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="1">
+      <c r="A11" s="3">
         <v>39744</v>
       </c>
-      <c r="B11" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="B11" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="1">
-        <v>2</v>
-      </c>
-      <c r="E11" s="1">
+      <c r="D11" s="3">
+        <v>2</v>
+      </c>
+      <c r="E11" s="3">
         <v>378</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="3">
         <v>378</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I11" s="1" t="s">
+      <c r="G11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I11" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="1">
+      <c r="A12" s="3">
         <v>39743</v>
       </c>
-      <c r="B12" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="B12" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="1">
-        <v>2</v>
-      </c>
-      <c r="E12" s="1">
+      <c r="D12" s="3">
+        <v>2</v>
+      </c>
+      <c r="E12" s="3">
         <v>567</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="3">
         <v>567</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I12" s="1" t="s">
+      <c r="G12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I12" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="1">
+      <c r="A13" s="3">
         <v>39742</v>
       </c>
-      <c r="B13" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="B13" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="3">
         <v>3</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="3">
         <v>1029</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="3">
         <v>1029</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I13" s="1" t="s">
+      <c r="G13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I13" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="1">
+      <c r="A14" s="3">
         <v>39741</v>
       </c>
-      <c r="B14" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="B14" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="1">
-        <v>2</v>
-      </c>
-      <c r="E14" s="1">
+      <c r="D14" s="3">
+        <v>2</v>
+      </c>
+      <c r="E14" s="3">
         <v>487</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="3">
         <v>487</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I14" s="1" t="s">
+      <c r="G14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="1">
+      <c r="A15" s="3">
         <v>39740</v>
       </c>
-      <c r="B15" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="B15" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="3">
         <v>3</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="3">
         <v>909</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="3">
         <v>909</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I15" s="1" t="s">
+      <c r="G15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I15" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="1">
+      <c r="A16" s="3">
         <v>39739</v>
       </c>
-      <c r="B16" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="B16" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="1">
-        <v>2</v>
-      </c>
-      <c r="E16" s="1">
+      <c r="D16" s="3">
+        <v>2</v>
+      </c>
+      <c r="E16" s="3">
         <v>538</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="3">
         <v>538</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I16" s="1" t="s">
+      <c r="G16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I16" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="1">
+      <c r="A17" s="3">
         <v>39738</v>
       </c>
-      <c r="B17" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="B17" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="1">
-        <v>2</v>
-      </c>
-      <c r="E17" s="1">
+      <c r="D17" s="3">
+        <v>2</v>
+      </c>
+      <c r="E17" s="3">
         <v>877</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="3">
         <v>877</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I17" s="1" t="s">
+      <c r="G17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I17" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="1">
+      <c r="A18" s="3">
         <v>39737</v>
       </c>
-      <c r="B18" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C18" s="1" t="s">
+      <c r="B18" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="3">
         <v>3</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="3">
         <v>725</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="3">
         <v>725</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I18" s="1" t="s">
+      <c r="G18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I18" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="1">
+      <c r="A19" s="3">
         <v>39736</v>
       </c>
-      <c r="B19" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C19" s="1" t="s">
+      <c r="B19" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="3">
         <v>3</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="3">
         <v>1071</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="3">
         <v>1071</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I19" s="1" t="s">
+      <c r="G19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I19" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="1">
+      <c r="A20" s="3">
         <v>39735</v>
       </c>
-      <c r="B20" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C20" s="1" t="s">
+      <c r="B20" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="1">
-        <v>2</v>
-      </c>
-      <c r="E20" s="1">
+      <c r="D20" s="3">
+        <v>2</v>
+      </c>
+      <c r="E20" s="3">
         <v>1007</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="3">
         <v>1007</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I20" s="1" t="s">
+      <c r="G20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I20" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="1">
+      <c r="A21" s="3">
         <v>39734</v>
       </c>
-      <c r="B21" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C21" s="1" t="s">
+      <c r="B21" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="1">
-        <v>2</v>
-      </c>
-      <c r="E21" s="1">
+      <c r="D21" s="3">
+        <v>2</v>
+      </c>
+      <c r="E21" s="3">
         <v>955</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="3">
         <v>955</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I21" s="1" t="s">
+      <c r="G21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I21" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="1">
+      <c r="A22" s="3">
         <v>39733</v>
       </c>
-      <c r="B22" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C22" s="1" t="s">
+      <c r="B22" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="3">
         <v>3</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="3">
         <v>458</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="3">
         <v>458</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I22" s="1" t="s">
+      <c r="G22" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I22" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="1">
+      <c r="A23" s="3">
         <v>39731</v>
       </c>
-      <c r="B23" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C23" s="1" t="s">
+      <c r="B23" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="3">
         <v>3</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="3">
         <v>1106</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="3">
         <v>1106</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I23" s="1" t="s">
+      <c r="G23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I23" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="1">
+      <c r="A24" s="3">
         <v>39726</v>
       </c>
-      <c r="B24" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C24" s="1" t="s">
+      <c r="B24" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D24" s="1">
-        <v>1</v>
-      </c>
-      <c r="E24" s="1">
+      <c r="D24" s="3">
+        <v>1</v>
+      </c>
+      <c r="E24" s="3">
         <v>745</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="3">
         <v>745</v>
       </c>
-      <c r="G24" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H24" s="1" t="s">
+      <c r="G24" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H24" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="I24" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="1">
+      <c r="A25" s="3">
         <v>39725</v>
       </c>
-      <c r="B25" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C25" s="1" t="s">
+      <c r="B25" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="1">
-        <v>1</v>
-      </c>
-      <c r="E25" s="1">
+      <c r="D25" s="3">
+        <v>1</v>
+      </c>
+      <c r="E25" s="3">
         <v>788</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="3">
         <v>788</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H25" s="1" t="s">
+      <c r="G25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H25" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="I25" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="1">
+      <c r="A26" s="3">
         <v>39724</v>
       </c>
-      <c r="B26" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C26" s="1" t="s">
+      <c r="B26" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="1">
-        <v>1</v>
-      </c>
-      <c r="E26" s="1">
+      <c r="D26" s="3">
+        <v>1</v>
+      </c>
+      <c r="E26" s="3">
         <v>779</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="3">
         <v>779</v>
       </c>
-      <c r="G26" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H26" s="1" t="s">
+      <c r="G26" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="I26" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="1">
+      <c r="A27" s="3">
         <v>39723</v>
       </c>
-      <c r="B27" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C27" s="1" t="s">
+      <c r="B27" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D27" s="1">
-        <v>1</v>
-      </c>
-      <c r="E27" s="1">
+      <c r="D27" s="3">
+        <v>1</v>
+      </c>
+      <c r="E27" s="3">
         <v>790</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="3">
         <v>790</v>
       </c>
-      <c r="G27" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H27" s="1" t="s">
+      <c r="G27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H27" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I27" s="1" t="s">
+      <c r="I27" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="1">
+      <c r="A28" s="3">
         <v>39722</v>
       </c>
-      <c r="B28" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C28" s="1" t="s">
+      <c r="B28" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D28" s="1">
-        <v>1</v>
-      </c>
-      <c r="E28" s="1">
+      <c r="D28" s="3">
+        <v>1</v>
+      </c>
+      <c r="E28" s="3">
         <v>768</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="3">
         <v>768</v>
       </c>
-      <c r="G28" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H28" s="1" t="s">
+      <c r="G28" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H28" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="I28" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="1">
+      <c r="A29" s="3">
         <v>39721</v>
       </c>
-      <c r="B29" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C29" s="1" t="s">
+      <c r="B29" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D29" s="1">
-        <v>1</v>
-      </c>
-      <c r="E29" s="1">
+      <c r="D29" s="3">
+        <v>1</v>
+      </c>
+      <c r="E29" s="3">
         <v>609</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" s="3">
         <v>609</v>
       </c>
-      <c r="G29" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H29" s="1" t="s">
+      <c r="G29" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H29" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="I29" s="3" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="1">
+      <c r="A30" s="3">
         <v>39720</v>
       </c>
-      <c r="B30" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C30" s="1" t="s">
+      <c r="B30" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D30" s="1">
-        <v>1</v>
-      </c>
-      <c r="E30" s="1">
+      <c r="D30" s="3">
+        <v>1</v>
+      </c>
+      <c r="E30" s="3">
         <v>609</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="3">
         <v>609</v>
       </c>
-      <c r="G30" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H30" s="1" t="s">
+      <c r="G30" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H30" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I30" s="1" t="s">
+      <c r="I30" s="3" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="1">
+      <c r="A31" s="3">
         <v>39719</v>
       </c>
-      <c r="B31" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C31" s="1" t="s">
+      <c r="B31" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D31" s="1">
-        <v>1</v>
-      </c>
-      <c r="E31" s="1">
+      <c r="D31" s="3">
+        <v>1</v>
+      </c>
+      <c r="E31" s="3">
         <v>768</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" s="3">
         <v>768</v>
       </c>
-      <c r="G31" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H31" s="1" t="s">
+      <c r="G31" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H31" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="I31" s="3" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="1">
+      <c r="A32" s="3">
         <v>39718</v>
       </c>
-      <c r="B32" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C32" s="1" t="s">
+      <c r="B32" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D32" s="1">
-        <v>1</v>
-      </c>
-      <c r="E32" s="1">
+      <c r="D32" s="3">
+        <v>1</v>
+      </c>
+      <c r="E32" s="3">
         <v>745</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32" s="3">
         <v>745</v>
       </c>
-      <c r="G32" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H32" s="1" t="s">
+      <c r="G32" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H32" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I32" s="1" t="s">
+      <c r="I32" s="3" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="1">
+      <c r="A33" s="3">
         <v>39717</v>
       </c>
-      <c r="B33" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C33" s="1" t="s">
+      <c r="B33" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D33" s="1">
-        <v>1</v>
-      </c>
-      <c r="E33" s="1">
+      <c r="D33" s="3">
+        <v>1</v>
+      </c>
+      <c r="E33" s="3">
         <v>720</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F33" s="3">
         <v>720</v>
       </c>
-      <c r="G33" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H33" s="1" t="s">
+      <c r="G33" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H33" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I33" s="1" t="s">
+      <c r="I33" s="3" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="1">
+      <c r="A34" s="3">
         <v>39716</v>
       </c>
-      <c r="B34" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C34" s="1" t="s">
+      <c r="B34" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D34" s="1">
-        <v>1</v>
-      </c>
-      <c r="E34" s="1">
+      <c r="D34" s="3">
+        <v>1</v>
+      </c>
+      <c r="E34" s="3">
         <v>508</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F34" s="3">
         <v>508</v>
       </c>
-      <c r="G34" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H34" s="1" t="s">
+      <c r="G34" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H34" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I34" s="1" t="s">
+      <c r="I34" s="3" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="1">
+      <c r="A35" s="3">
         <v>39715</v>
       </c>
-      <c r="B35" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C35" s="1" t="s">
+      <c r="B35" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D35" s="1">
-        <v>1</v>
-      </c>
-      <c r="E35" s="1">
+      <c r="D35" s="3">
+        <v>1</v>
+      </c>
+      <c r="E35" s="3">
         <v>599</v>
       </c>
-      <c r="F35" s="1">
+      <c r="F35" s="3">
         <v>599</v>
       </c>
-      <c r="G35" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H35" s="1" t="s">
+      <c r="G35" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H35" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I35" s="1" t="s">
+      <c r="I35" s="3" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="1">
+      <c r="A36" s="3">
         <v>39714</v>
       </c>
-      <c r="B36" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C36" s="1" t="s">
+      <c r="B36" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D36" s="1">
-        <v>1</v>
-      </c>
-      <c r="E36" s="1">
+      <c r="D36" s="3">
+        <v>1</v>
+      </c>
+      <c r="E36" s="3">
         <v>745</v>
       </c>
-      <c r="F36" s="1">
+      <c r="F36" s="3">
         <v>745</v>
       </c>
-      <c r="G36" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H36" s="1" t="s">
+      <c r="G36" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H36" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I36" s="1" t="s">
+      <c r="I36" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="1">
+      <c r="A37" s="3">
         <v>39713</v>
       </c>
-      <c r="B37" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C37" s="1" t="s">
+      <c r="B37" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37" s="3">
         <v>3</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37" s="3">
         <v>624</v>
       </c>
-      <c r="F37" s="1">
+      <c r="F37" s="3">
         <v>624</v>
       </c>
-      <c r="G37" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H37" s="1" t="s">
+      <c r="G37" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H37" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I37" s="1" t="s">
+      <c r="I37" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="1">
+      <c r="A38" s="3">
         <v>39712</v>
       </c>
-      <c r="B38" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C38" s="1" t="s">
+      <c r="B38" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D38" s="1">
-        <v>1</v>
-      </c>
-      <c r="E38" s="1">
+      <c r="D38" s="3">
+        <v>1</v>
+      </c>
+      <c r="E38" s="3">
         <v>599</v>
       </c>
-      <c r="F38" s="1">
+      <c r="F38" s="3">
         <v>599</v>
       </c>
-      <c r="G38" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H38" s="1" t="s">
+      <c r="G38" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H38" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I38" s="1" t="s">
+      <c r="I38" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="1">
+      <c r="A39" s="3">
         <v>39711</v>
       </c>
-      <c r="B39" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C39" s="1" t="s">
+      <c r="B39" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D39" s="3">
         <v>4</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E39" s="3">
         <v>832</v>
       </c>
-      <c r="F39" s="1">
+      <c r="F39" s="3">
         <v>832</v>
       </c>
-      <c r="G39" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H39" s="1" t="s">
+      <c r="G39" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H39" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I39" s="1" t="s">
+      <c r="I39" s="3" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="1">
+      <c r="A40" s="3">
         <v>39710</v>
       </c>
-      <c r="B40" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C40" s="1" t="s">
+      <c r="B40" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D40" s="1">
-        <v>1</v>
-      </c>
-      <c r="E40" s="1">
+      <c r="D40" s="3">
+        <v>1</v>
+      </c>
+      <c r="E40" s="3">
         <v>768</v>
       </c>
-      <c r="F40" s="1">
+      <c r="F40" s="3">
         <v>768</v>
       </c>
-      <c r="G40" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H40" s="1" t="s">
+      <c r="G40" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H40" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I40" s="1" t="s">
+      <c r="I40" s="3" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="1">
+      <c r="A41" s="3">
         <v>39709</v>
       </c>
-      <c r="B41" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C41" s="1" t="s">
+      <c r="B41" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D41" s="1">
-        <v>1</v>
-      </c>
-      <c r="E41" s="1">
+      <c r="D41" s="3">
+        <v>1</v>
+      </c>
+      <c r="E41" s="3">
         <v>700</v>
       </c>
-      <c r="F41" s="1">
+      <c r="F41" s="3">
         <v>700</v>
       </c>
-      <c r="G41" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H41" s="1" t="s">
+      <c r="G41" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H41" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I41" s="1" t="s">
+      <c r="I41" s="3" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="1">
+      <c r="A42" s="3">
         <v>39708</v>
       </c>
-      <c r="B42" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C42" s="1" t="s">
+      <c r="B42" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D42" s="3">
         <v>3</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E42" s="3">
         <v>624</v>
       </c>
-      <c r="F42" s="1">
+      <c r="F42" s="3">
         <v>624</v>
       </c>
-      <c r="G42" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H42" s="1" t="s">
+      <c r="G42" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H42" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I42" s="1" t="s">
+      <c r="I42" s="3" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="1">
+      <c r="A43" s="3">
         <v>39707</v>
       </c>
-      <c r="B43" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C43" s="1" t="s">
+      <c r="B43" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D43" s="3">
         <v>4</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E43" s="3">
         <v>716</v>
       </c>
-      <c r="F43" s="1">
+      <c r="F43" s="3">
         <v>716</v>
       </c>
-      <c r="G43" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H43" s="1" t="s">
+      <c r="G43" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H43" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I43" s="1" t="s">
+      <c r="I43" s="3" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="1">
+      <c r="A44" s="3">
         <v>39706</v>
       </c>
-      <c r="B44" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C44" s="1" t="s">
+      <c r="B44" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D44" s="1">
-        <v>1</v>
-      </c>
-      <c r="E44" s="1">
+      <c r="D44" s="3">
+        <v>1</v>
+      </c>
+      <c r="E44" s="3">
         <v>745</v>
       </c>
-      <c r="F44" s="1">
+      <c r="F44" s="3">
         <v>745</v>
       </c>
-      <c r="G44" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H44" s="1" t="s">
+      <c r="G44" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H44" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I44" s="1" t="s">
+      <c r="I44" s="3" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="1">
+      <c r="A45" s="3">
         <v>39705</v>
       </c>
-      <c r="B45" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C45" s="1" t="s">
+      <c r="B45" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D45" s="1">
-        <v>1</v>
-      </c>
-      <c r="E45" s="1">
+      <c r="D45" s="3">
+        <v>1</v>
+      </c>
+      <c r="E45" s="3">
         <v>779</v>
       </c>
-      <c r="F45" s="1">
+      <c r="F45" s="3">
         <v>779</v>
       </c>
-      <c r="G45" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H45" s="1" t="s">
+      <c r="G45" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H45" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I45" s="1" t="s">
+      <c r="I45" s="3" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="1">
+      <c r="A46" s="3">
         <v>39704</v>
       </c>
-      <c r="B46" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C46" s="1" t="s">
+      <c r="B46" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D46" s="1">
-        <v>1</v>
-      </c>
-      <c r="E46" s="1">
+      <c r="D46" s="3">
+        <v>1</v>
+      </c>
+      <c r="E46" s="3">
         <v>745</v>
       </c>
-      <c r="F46" s="1">
+      <c r="F46" s="3">
         <v>745</v>
       </c>
-      <c r="G46" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H46" s="1" t="s">
+      <c r="G46" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H46" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I46" s="1" t="s">
+      <c r="I46" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="1">
+      <c r="A47" s="3">
         <v>39703</v>
       </c>
-      <c r="B47" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C47" s="1" t="s">
+      <c r="B47" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D47" s="1">
-        <v>1</v>
-      </c>
-      <c r="E47" s="1">
+      <c r="D47" s="3">
+        <v>1</v>
+      </c>
+      <c r="E47" s="3">
         <v>768</v>
       </c>
-      <c r="F47" s="1">
+      <c r="F47" s="3">
         <v>768</v>
       </c>
-      <c r="G47" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H47" s="1" t="s">
+      <c r="G47" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H47" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I47" s="1" t="s">
+      <c r="I47" s="3" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="1">
+      <c r="A48" s="3">
         <v>39702</v>
       </c>
-      <c r="B48" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C48" s="1" t="s">
+      <c r="B48" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D48" s="1">
-        <v>1</v>
-      </c>
-      <c r="E48" s="1">
+      <c r="D48" s="3">
+        <v>1</v>
+      </c>
+      <c r="E48" s="3">
         <v>779</v>
       </c>
-      <c r="F48" s="1">
+      <c r="F48" s="3">
         <v>779</v>
       </c>
-      <c r="G48" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H48" s="1" t="s">
+      <c r="G48" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H48" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I48" s="1" t="s">
+      <c r="I48" s="3" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="1">
+      <c r="A49" s="3">
         <v>39701</v>
       </c>
-      <c r="B49" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C49" s="1" t="s">
+      <c r="B49" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D49" s="1">
-        <v>1</v>
-      </c>
-      <c r="E49" s="1">
+      <c r="D49" s="3">
+        <v>1</v>
+      </c>
+      <c r="E49" s="3">
         <v>790</v>
       </c>
-      <c r="F49" s="1">
+      <c r="F49" s="3">
         <v>790</v>
       </c>
-      <c r="G49" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H49" s="1" t="s">
+      <c r="G49" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H49" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I49" s="1" t="s">
+      <c r="I49" s="3" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="1">
+      <c r="A50" s="3">
         <v>39700</v>
       </c>
-      <c r="B50" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C50" s="1" t="s">
+      <c r="B50" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D50" s="1">
-        <v>1</v>
-      </c>
-      <c r="E50" s="1">
+      <c r="D50" s="3">
+        <v>1</v>
+      </c>
+      <c r="E50" s="3">
         <v>508</v>
       </c>
-      <c r="F50" s="1">
+      <c r="F50" s="3">
         <v>508</v>
       </c>
-      <c r="G50" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H50" s="1" t="s">
+      <c r="G50" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H50" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I50" s="1" t="s">
+      <c r="I50" s="3" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="1">
+      <c r="A51" s="3">
         <v>39699</v>
       </c>
-      <c r="B51" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C51" s="1" t="s">
+      <c r="B51" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D51" s="1">
-        <v>1</v>
-      </c>
-      <c r="E51" s="1">
+      <c r="D51" s="3">
+        <v>1</v>
+      </c>
+      <c r="E51" s="3">
         <v>508</v>
       </c>
-      <c r="F51" s="1">
+      <c r="F51" s="3">
         <v>508</v>
       </c>
-      <c r="G51" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H51" s="1" t="s">
+      <c r="G51" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H51" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I51" s="1" t="s">
+      <c r="I51" s="3" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="1">
+      <c r="A52" s="3">
         <v>39698</v>
       </c>
-      <c r="B52" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C52" s="1" t="s">
+      <c r="B52" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D52" s="1">
-        <v>1</v>
-      </c>
-      <c r="E52" s="1">
+      <c r="D52" s="3">
+        <v>1</v>
+      </c>
+      <c r="E52" s="3">
         <v>768</v>
       </c>
-      <c r="F52" s="1">
+      <c r="F52" s="3">
         <v>768</v>
       </c>
-      <c r="G52" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H52" s="1" t="s">
+      <c r="G52" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H52" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I52" s="1" t="s">
+      <c r="I52" s="3" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="1">
+      <c r="A53" s="3">
         <v>39697</v>
       </c>
-      <c r="B53" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C53" s="1" t="s">
+      <c r="B53" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D53" s="1">
-        <v>1</v>
-      </c>
-      <c r="E53" s="1">
+      <c r="D53" s="3">
+        <v>1</v>
+      </c>
+      <c r="E53" s="3">
         <v>768</v>
       </c>
-      <c r="F53" s="1">
+      <c r="F53" s="3">
         <v>768</v>
       </c>
-      <c r="G53" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H53" s="1" t="s">
+      <c r="G53" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H53" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I53" s="1" t="s">
+      <c r="I53" s="3" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="1">
+      <c r="A54" s="3">
         <v>39696</v>
       </c>
-      <c r="B54" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C54" s="1" t="s">
+      <c r="B54" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D54" s="1">
-        <v>1</v>
-      </c>
-      <c r="E54" s="1">
+      <c r="D54" s="3">
+        <v>1</v>
+      </c>
+      <c r="E54" s="3">
         <v>779</v>
       </c>
-      <c r="F54" s="1">
+      <c r="F54" s="3">
         <v>779</v>
       </c>
-      <c r="G54" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H54" s="1" t="s">
+      <c r="G54" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H54" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I54" s="1" t="s">
+      <c r="I54" s="3" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="1">
+      <c r="A55" s="3">
         <v>39695</v>
       </c>
-      <c r="B55" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C55" s="1" t="s">
+      <c r="B55" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D55" s="1">
-        <v>1</v>
-      </c>
-      <c r="E55" s="1">
+      <c r="D55" s="3">
+        <v>1</v>
+      </c>
+      <c r="E55" s="3">
         <v>790</v>
       </c>
-      <c r="F55" s="1">
+      <c r="F55" s="3">
         <v>790</v>
       </c>
-      <c r="G55" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H55" s="1" t="s">
+      <c r="G55" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H55" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I55" s="1" t="s">
+      <c r="I55" s="3" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="1">
+      <c r="A56" s="3">
         <v>39694</v>
       </c>
-      <c r="B56" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C56" s="1" t="s">
+      <c r="B56" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D56" s="1">
-        <v>1</v>
-      </c>
-      <c r="E56" s="1">
+      <c r="D56" s="3">
+        <v>1</v>
+      </c>
+      <c r="E56" s="3">
         <v>700</v>
       </c>
-      <c r="F56" s="1">
+      <c r="F56" s="3">
         <v>700</v>
       </c>
-      <c r="G56" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H56" s="1" t="s">
+      <c r="G56" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H56" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I56" s="1" t="s">
+      <c r="I56" s="3" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="1">
+      <c r="A57" s="3">
         <v>39693</v>
       </c>
-      <c r="B57" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C57" s="1" t="s">
+      <c r="B57" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D57" s="1">
-        <v>2</v>
-      </c>
-      <c r="E57" s="1">
+      <c r="D57" s="3">
+        <v>2</v>
+      </c>
+      <c r="E57" s="3">
         <v>576</v>
       </c>
-      <c r="F57" s="1">
+      <c r="F57" s="3">
         <v>576</v>
       </c>
-      <c r="G57" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H57" s="1" t="s">
+      <c r="G57" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H57" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I57" s="1" t="s">
+      <c r="I57" s="3" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="1">
+      <c r="A58" s="3">
         <v>39692</v>
       </c>
-      <c r="B58" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C58" s="1" t="s">
+      <c r="B58" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D58" s="1">
-        <v>2</v>
-      </c>
-      <c r="E58" s="1">
+      <c r="D58" s="3">
+        <v>2</v>
+      </c>
+      <c r="E58" s="3">
         <v>740</v>
       </c>
-      <c r="F58" s="1">
+      <c r="F58" s="3">
         <v>740</v>
       </c>
-      <c r="G58" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H58" s="1" t="s">
+      <c r="G58" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H58" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I58" s="1" t="s">
+      <c r="I58" s="3" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="1">
+      <c r="A59" s="3">
         <v>39691</v>
       </c>
-      <c r="B59" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C59" s="1" t="s">
+      <c r="B59" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C59" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D59" s="1">
-        <v>1</v>
-      </c>
-      <c r="E59" s="1">
+      <c r="D59" s="3">
+        <v>1</v>
+      </c>
+      <c r="E59" s="3">
         <v>469</v>
       </c>
-      <c r="F59" s="1">
+      <c r="F59" s="3">
         <v>469</v>
       </c>
-      <c r="G59" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H59" s="1" t="s">
+      <c r="G59" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H59" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I59" s="1" t="s">
+      <c r="I59" s="3" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="1">
+      <c r="A60" s="3">
         <v>39690</v>
       </c>
-      <c r="B60" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C60" s="1" t="s">
+      <c r="B60" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C60" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D60" s="1">
-        <v>1</v>
-      </c>
-      <c r="E60" s="1">
+      <c r="D60" s="3">
+        <v>1</v>
+      </c>
+      <c r="E60" s="3">
         <v>370</v>
       </c>
-      <c r="F60" s="1">
+      <c r="F60" s="3">
         <v>370</v>
       </c>
-      <c r="G60" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H60" s="1" t="s">
+      <c r="G60" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H60" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I60" s="1" t="s">
+      <c r="I60" s="3" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="1">
+      <c r="A61" s="3">
         <v>39689</v>
       </c>
-      <c r="B61" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C61" s="1" t="s">
+      <c r="B61" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D61" s="1">
+      <c r="D61" s="3">
         <v>3</v>
       </c>
-      <c r="E61" s="1">
+      <c r="E61" s="3">
         <v>1625</v>
       </c>
-      <c r="F61" s="1">
+      <c r="F61" s="3">
         <v>1625</v>
       </c>
-      <c r="G61" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H61" s="1" t="s">
+      <c r="G61" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H61" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I61" s="1" t="s">
+      <c r="I61" s="3" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="1">
+      <c r="A62" s="3">
         <v>39688</v>
       </c>
-      <c r="B62" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C62" s="1" t="s">
+      <c r="B62" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C62" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D62" s="1">
+      <c r="D62" s="3">
         <v>3</v>
       </c>
-      <c r="E62" s="1">
+      <c r="E62" s="3">
         <v>959</v>
       </c>
-      <c r="F62" s="1">
+      <c r="F62" s="3">
         <v>959</v>
       </c>
-      <c r="G62" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I62" s="1" t="s">
+      <c r="G62" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I62" s="3" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="1">
+      <c r="A63" s="3">
         <v>39687</v>
       </c>
-      <c r="B63" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C63" s="1" t="s">
+      <c r="B63" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C63" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D63" s="1">
-        <v>1</v>
-      </c>
-      <c r="E63" s="1">
+      <c r="D63" s="3">
+        <v>1</v>
+      </c>
+      <c r="E63" s="3">
         <v>465</v>
       </c>
-      <c r="F63" s="1">
+      <c r="F63" s="3">
         <v>465</v>
       </c>
-      <c r="G63" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I63" s="1" t="s">
+      <c r="G63" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I63" s="3" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="1">
+      <c r="A64" s="3">
         <v>39686</v>
       </c>
-      <c r="B64" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C64" s="1" t="s">
+      <c r="B64" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C64" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D64" s="1">
+      <c r="D64" s="3">
         <v>3</v>
       </c>
-      <c r="E64" s="1">
+      <c r="E64" s="3">
         <v>172.9</v>
       </c>
-      <c r="F64" s="1">
+      <c r="F64" s="3">
         <v>172.9</v>
       </c>
-      <c r="G64" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I64" s="1" t="s">
+      <c r="G64" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I64" s="3" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="1">
+      <c r="A65" s="3">
         <v>39685</v>
       </c>
-      <c r="B65" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C65" s="1" t="s">
+      <c r="B65" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C65" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D65" s="1">
-        <v>2</v>
-      </c>
-      <c r="E65" s="1">
+      <c r="D65" s="3">
+        <v>2</v>
+      </c>
+      <c r="E65" s="3">
         <v>1289</v>
       </c>
-      <c r="F65" s="1">
+      <c r="F65" s="3">
         <v>1289</v>
       </c>
-      <c r="G65" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I65" s="1" t="s">
+      <c r="G65" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I65" s="3" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="1">
+      <c r="A66" s="3">
         <v>39684</v>
       </c>
-      <c r="B66" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C66" s="1" t="s">
+      <c r="B66" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C66" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D66" s="1">
+      <c r="D66" s="3">
         <v>3</v>
       </c>
-      <c r="E66" s="1">
+      <c r="E66" s="3">
         <v>628</v>
       </c>
-      <c r="F66" s="1">
+      <c r="F66" s="3">
         <v>628</v>
       </c>
-      <c r="G66" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I66" s="1" t="s">
+      <c r="G66" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I66" s="3" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="1">
+      <c r="A67" s="3">
         <v>39683</v>
       </c>
-      <c r="B67" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C67" s="1" t="s">
+      <c r="B67" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C67" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="D67" s="1">
+      <c r="D67" s="3">
         <v>3</v>
       </c>
-      <c r="E67" s="1">
+      <c r="E67" s="3">
         <v>1247</v>
       </c>
-      <c r="F67" s="1">
+      <c r="F67" s="3">
         <v>1247</v>
       </c>
-      <c r="G67" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I67" s="1" t="s">
+      <c r="G67" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I67" s="3" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="1">
+      <c r="A68" s="3">
         <v>39682</v>
       </c>
-      <c r="B68" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C68" s="1" t="s">
+      <c r="B68" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C68" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D68" s="1">
+      <c r="D68" s="3">
         <v>3</v>
       </c>
-      <c r="E68" s="1">
+      <c r="E68" s="3">
         <v>1108</v>
       </c>
-      <c r="F68" s="1">
+      <c r="F68" s="3">
         <v>1108</v>
       </c>
-      <c r="G68" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I68" s="1" t="s">
+      <c r="G68" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I68" s="3" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="1">
+      <c r="A69" s="3">
         <v>39681</v>
       </c>
-      <c r="B69" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C69" s="1" t="s">
+      <c r="B69" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C69" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D69" s="1">
-        <v>2</v>
-      </c>
-      <c r="E69" s="1">
+      <c r="D69" s="3">
+        <v>2</v>
+      </c>
+      <c r="E69" s="3">
         <v>121</v>
       </c>
-      <c r="F69" s="1">
+      <c r="F69" s="3">
         <v>121</v>
       </c>
-      <c r="G69" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I69" s="1" t="s">
+      <c r="G69" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I69" s="3" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="1">
+      <c r="A70" s="3">
         <v>39680</v>
       </c>
-      <c r="B70" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C70" s="1" t="s">
+      <c r="B70" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C70" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="D70" s="1">
-        <v>2</v>
-      </c>
-      <c r="E70" s="1">
+      <c r="D70" s="3">
+        <v>2</v>
+      </c>
+      <c r="E70" s="3">
         <v>285</v>
       </c>
-      <c r="F70" s="1">
+      <c r="F70" s="3">
         <v>285</v>
       </c>
-      <c r="G70" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I70" s="1" t="s">
+      <c r="G70" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I70" s="3" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="1">
+      <c r="A71" s="3">
         <v>39679</v>
       </c>
-      <c r="B71" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C71" s="1" t="s">
+      <c r="B71" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C71" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D71" s="1">
+      <c r="D71" s="3">
         <v>3</v>
       </c>
-      <c r="E71" s="1">
+      <c r="E71" s="3">
         <v>1194</v>
       </c>
-      <c r="F71" s="1">
+      <c r="F71" s="3">
         <v>1194</v>
       </c>
-      <c r="G71" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I71" s="1" t="s">
+      <c r="G71" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I71" s="3" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="1">
+      <c r="A72" s="3">
         <v>39678</v>
       </c>
-      <c r="B72" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C72" s="1" t="s">
+      <c r="B72" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C72" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D72" s="1">
+      <c r="D72" s="3">
         <v>3</v>
       </c>
-      <c r="E72" s="1">
+      <c r="E72" s="3">
         <v>800</v>
       </c>
-      <c r="F72" s="1">
+      <c r="F72" s="3">
         <v>800</v>
       </c>
-      <c r="G72" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H72" s="1" t="s">
+      <c r="G72" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H72" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I72" s="1" t="s">
+      <c r="I72" s="3" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="1">
+      <c r="A73" s="3">
         <v>39677</v>
       </c>
-      <c r="B73" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C73" s="1" t="s">
+      <c r="B73" s="3">
+        <v>15874</v>
+      </c>
+      <c r="C73" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D73" s="1">
-        <v>2</v>
-      </c>
-      <c r="E73" s="1">
+      <c r="D73" s="3">
+        <v>2</v>
+      </c>
+      <c r="E73" s="3">
         <v>237</v>
       </c>
-      <c r="F73" s="1">
+      <c r="F73" s="3">
         <v>237</v>
       </c>
-      <c r="G73" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I73" s="1" t="s">
+      <c r="G73" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I73" s="3" t="s">
         <v>122</v>
       </c>
     </row>
@@ -3544,14 +3908,2516 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:O85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="13" max="13" width="9.375"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1">
+        <v>39860</v>
+      </c>
+      <c r="B1" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>1098</v>
+      </c>
+      <c r="F1" s="1">
+        <v>1098</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1">
+        <v>39859</v>
+      </c>
+      <c r="B2" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>337</v>
+      </c>
+      <c r="F2" s="1">
+        <v>337</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1">
+        <v>39858</v>
+      </c>
+      <c r="B3" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1404</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1404</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="2">
+        <v>30000</v>
+      </c>
+      <c r="N3" s="2"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="1">
+        <v>39857</v>
+      </c>
+      <c r="B4" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>169</v>
+      </c>
+      <c r="F4" s="1">
+        <v>169</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="2">
+        <v>20000</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1">
+        <v>39856</v>
+      </c>
+      <c r="B5" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>828</v>
+      </c>
+      <c r="F5" s="1">
+        <v>828</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" s="2">
+        <v>50541.5</v>
+      </c>
+      <c r="N5" s="2"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1">
+        <v>39855</v>
+      </c>
+      <c r="B6" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>453</v>
+      </c>
+      <c r="F6" s="1">
+        <v>453</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M6" s="2">
+        <v>-3776.84</v>
+      </c>
+      <c r="N6" s="2"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1">
+        <v>39854</v>
+      </c>
+      <c r="B7" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>18</v>
+      </c>
+      <c r="F7" s="1">
+        <v>18</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1">
+        <v>39853</v>
+      </c>
+      <c r="B8" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>287</v>
+      </c>
+      <c r="F8" s="1">
+        <v>287</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1">
+        <v>39852</v>
+      </c>
+      <c r="B9" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1200</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1200</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1">
+        <v>39851</v>
+      </c>
+      <c r="B10" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1">
+        <v>618</v>
+      </c>
+      <c r="F10" s="1">
+        <v>618</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1">
+        <v>39850</v>
+      </c>
+      <c r="B11" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1">
+        <v>144</v>
+      </c>
+      <c r="F11" s="1">
+        <v>144</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1">
+        <v>39849</v>
+      </c>
+      <c r="B12" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1">
+        <v>138</v>
+      </c>
+      <c r="F12" s="1">
+        <v>138</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1">
+        <v>39848</v>
+      </c>
+      <c r="B13" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2</v>
+      </c>
+      <c r="E13" s="1">
+        <v>363</v>
+      </c>
+      <c r="F13" s="1">
+        <v>363</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1">
+        <v>39847</v>
+      </c>
+      <c r="B14" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2</v>
+      </c>
+      <c r="E14" s="1">
+        <v>74.9</v>
+      </c>
+      <c r="F14" s="1">
+        <v>74.9</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1">
+        <v>39846</v>
+      </c>
+      <c r="B15" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2</v>
+      </c>
+      <c r="E15" s="1">
+        <v>341</v>
+      </c>
+      <c r="F15" s="1">
+        <v>341</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1">
+        <v>39845</v>
+      </c>
+      <c r="B16" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D16" s="1">
+        <v>3</v>
+      </c>
+      <c r="E16" s="1">
+        <v>831</v>
+      </c>
+      <c r="F16" s="1">
+        <v>831</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="1">
+        <v>39844</v>
+      </c>
+      <c r="B17" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2</v>
+      </c>
+      <c r="E17" s="1">
+        <v>278</v>
+      </c>
+      <c r="F17" s="1">
+        <v>278</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1">
+        <v>39843</v>
+      </c>
+      <c r="B18" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D18" s="1">
+        <v>3</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1619</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1619</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="1">
+        <v>39842</v>
+      </c>
+      <c r="B19" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D19" s="1">
+        <v>2</v>
+      </c>
+      <c r="E19" s="1">
+        <v>217</v>
+      </c>
+      <c r="F19" s="1">
+        <v>217</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="1">
+        <v>39841</v>
+      </c>
+      <c r="B20" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D20" s="1">
+        <v>3</v>
+      </c>
+      <c r="E20" s="1">
+        <v>840</v>
+      </c>
+      <c r="F20" s="1">
+        <v>840</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="1">
+        <v>39840</v>
+      </c>
+      <c r="B21" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D21" s="1">
+        <v>2</v>
+      </c>
+      <c r="E21" s="1">
+        <v>588</v>
+      </c>
+      <c r="F21" s="1">
+        <v>588</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="1">
+        <v>39839</v>
+      </c>
+      <c r="B22" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2</v>
+      </c>
+      <c r="E22" s="1">
+        <v>778</v>
+      </c>
+      <c r="F22" s="1">
+        <v>778</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1">
+        <v>39838</v>
+      </c>
+      <c r="B23" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D23" s="1">
+        <v>3</v>
+      </c>
+      <c r="E23" s="1">
+        <v>625</v>
+      </c>
+      <c r="F23" s="1">
+        <v>625</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="1">
+        <v>39837</v>
+      </c>
+      <c r="B24" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D24" s="1">
+        <v>3</v>
+      </c>
+      <c r="E24" s="1">
+        <v>586</v>
+      </c>
+      <c r="F24" s="1">
+        <v>586</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="1">
+        <v>39836</v>
+      </c>
+      <c r="B25" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D25" s="1">
+        <v>2</v>
+      </c>
+      <c r="E25" s="1">
+        <v>858</v>
+      </c>
+      <c r="F25" s="1">
+        <v>858</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="1">
+        <v>39835</v>
+      </c>
+      <c r="B26" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D26" s="1">
+        <v>2</v>
+      </c>
+      <c r="E26" s="1">
+        <v>274</v>
+      </c>
+      <c r="F26" s="1">
+        <v>274</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="1">
+        <v>39834</v>
+      </c>
+      <c r="B27" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1">
+        <v>269</v>
+      </c>
+      <c r="F27" s="1">
+        <v>269</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="1">
+        <v>39833</v>
+      </c>
+      <c r="B28" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D28" s="1">
+        <v>3</v>
+      </c>
+      <c r="E28" s="1">
+        <v>906</v>
+      </c>
+      <c r="F28" s="1">
+        <v>906</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="1">
+        <v>39832</v>
+      </c>
+      <c r="B29" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D29" s="1">
+        <v>3</v>
+      </c>
+      <c r="E29" s="1">
+        <v>441</v>
+      </c>
+      <c r="F29" s="1">
+        <v>441</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="1">
+        <v>39831</v>
+      </c>
+      <c r="B30" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D30" s="1">
+        <v>3</v>
+      </c>
+      <c r="E30" s="1">
+        <v>349</v>
+      </c>
+      <c r="F30" s="1">
+        <v>349</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="1">
+        <v>39830</v>
+      </c>
+      <c r="B31" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D31" s="1">
+        <v>2</v>
+      </c>
+      <c r="E31" s="1">
+        <v>233</v>
+      </c>
+      <c r="F31" s="1">
+        <v>233</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="1">
+        <v>39829</v>
+      </c>
+      <c r="B32" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D32" s="1">
+        <v>2</v>
+      </c>
+      <c r="E32" s="1">
+        <v>450</v>
+      </c>
+      <c r="F32" s="1">
+        <v>450</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="1">
+        <v>39828</v>
+      </c>
+      <c r="B33" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D33" s="1">
+        <v>3</v>
+      </c>
+      <c r="E33" s="1">
+        <v>661</v>
+      </c>
+      <c r="F33" s="1">
+        <v>661</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="1">
+        <v>39827</v>
+      </c>
+      <c r="B34" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D34" s="1">
+        <v>2</v>
+      </c>
+      <c r="E34" s="1">
+        <v>822</v>
+      </c>
+      <c r="F34" s="1">
+        <v>822</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="1">
+        <v>39826</v>
+      </c>
+      <c r="B35" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D35" s="1">
+        <v>2</v>
+      </c>
+      <c r="E35" s="1">
+        <v>408</v>
+      </c>
+      <c r="F35" s="1">
+        <v>408</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="1">
+        <v>39825</v>
+      </c>
+      <c r="B36" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D36" s="1">
+        <v>2</v>
+      </c>
+      <c r="E36" s="1">
+        <v>398</v>
+      </c>
+      <c r="F36" s="1">
+        <v>398</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="1">
+        <v>39824</v>
+      </c>
+      <c r="B37" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D37" s="1">
+        <v>2</v>
+      </c>
+      <c r="E37" s="1">
+        <v>444</v>
+      </c>
+      <c r="F37" s="1">
+        <v>444</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="1">
+        <v>39823</v>
+      </c>
+      <c r="B38" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D38" s="1">
+        <v>3</v>
+      </c>
+      <c r="E38" s="1">
+        <v>287</v>
+      </c>
+      <c r="F38" s="1">
+        <v>287</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="1">
+        <v>39822</v>
+      </c>
+      <c r="B39" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D39" s="1">
+        <v>3</v>
+      </c>
+      <c r="E39" s="1">
+        <v>335</v>
+      </c>
+      <c r="F39" s="1">
+        <v>335</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="1">
+        <v>39821</v>
+      </c>
+      <c r="B40" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D40" s="1">
+        <v>3</v>
+      </c>
+      <c r="E40" s="1">
+        <v>547.9</v>
+      </c>
+      <c r="F40" s="1">
+        <v>547.9</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="1">
+        <v>39819</v>
+      </c>
+      <c r="B41" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D41" s="1">
+        <v>3</v>
+      </c>
+      <c r="E41" s="1">
+        <v>292</v>
+      </c>
+      <c r="F41" s="1">
+        <v>292</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="1">
+        <v>39818</v>
+      </c>
+      <c r="B42" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D42" s="1">
+        <v>2</v>
+      </c>
+      <c r="E42" s="1">
+        <v>126</v>
+      </c>
+      <c r="F42" s="1">
+        <v>126</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="1">
+        <v>39817</v>
+      </c>
+      <c r="B43" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D43" s="1">
+        <v>2</v>
+      </c>
+      <c r="E43" s="1">
+        <v>518</v>
+      </c>
+      <c r="F43" s="1">
+        <v>518</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="1">
+        <v>39816</v>
+      </c>
+      <c r="B44" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D44" s="1">
+        <v>3</v>
+      </c>
+      <c r="E44" s="1">
+        <v>896</v>
+      </c>
+      <c r="F44" s="1">
+        <v>896</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="1">
+        <v>39815</v>
+      </c>
+      <c r="B45" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D45" s="1">
+        <v>2</v>
+      </c>
+      <c r="E45" s="1">
+        <v>605</v>
+      </c>
+      <c r="F45" s="1">
+        <v>605</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="1">
+        <v>39814</v>
+      </c>
+      <c r="B46" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D46" s="1">
+        <v>3</v>
+      </c>
+      <c r="E46" s="1">
+        <v>446</v>
+      </c>
+      <c r="F46" s="1">
+        <v>446</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="1">
+        <v>39813</v>
+      </c>
+      <c r="B47" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D47" s="1">
+        <v>3</v>
+      </c>
+      <c r="E47" s="1">
+        <v>1100</v>
+      </c>
+      <c r="F47" s="1">
+        <v>1100</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="1">
+        <v>39807</v>
+      </c>
+      <c r="B48" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D48" s="1">
+        <v>3</v>
+      </c>
+      <c r="E48" s="1">
+        <v>1408</v>
+      </c>
+      <c r="F48" s="1">
+        <v>1408</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="1">
+        <v>39806</v>
+      </c>
+      <c r="B49" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D49" s="1">
+        <v>3</v>
+      </c>
+      <c r="E49" s="1">
+        <v>179</v>
+      </c>
+      <c r="F49" s="1">
+        <v>179</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="1">
+        <v>39805</v>
+      </c>
+      <c r="B50" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D50" s="1">
+        <v>3</v>
+      </c>
+      <c r="E50" s="1">
+        <v>957</v>
+      </c>
+      <c r="F50" s="1">
+        <v>957</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="1">
+        <v>39804</v>
+      </c>
+      <c r="B51" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D51" s="1">
+        <v>2</v>
+      </c>
+      <c r="E51" s="1">
+        <v>719</v>
+      </c>
+      <c r="F51" s="1">
+        <v>719</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="1">
+        <v>39803</v>
+      </c>
+      <c r="B52" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D52" s="1">
+        <v>3</v>
+      </c>
+      <c r="E52" s="1">
+        <v>1082</v>
+      </c>
+      <c r="F52" s="1">
+        <v>1082</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="1">
+        <v>39802</v>
+      </c>
+      <c r="B53" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D53" s="1">
+        <v>4</v>
+      </c>
+      <c r="E53" s="1">
+        <v>1338.9</v>
+      </c>
+      <c r="F53" s="1">
+        <v>1338.9</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="1">
+        <v>39799</v>
+      </c>
+      <c r="B54" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D54" s="1">
+        <v>3</v>
+      </c>
+      <c r="E54" s="1">
+        <v>609.9</v>
+      </c>
+      <c r="F54" s="1">
+        <v>609.9</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="1">
+        <v>39798</v>
+      </c>
+      <c r="B55" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D55" s="1">
+        <v>2</v>
+      </c>
+      <c r="E55" s="1">
+        <v>1155</v>
+      </c>
+      <c r="F55" s="1">
+        <v>1155</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="1">
+        <v>39797</v>
+      </c>
+      <c r="B56" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D56" s="1">
+        <v>2</v>
+      </c>
+      <c r="E56" s="1">
+        <v>228</v>
+      </c>
+      <c r="F56" s="1">
+        <v>228</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="1">
+        <v>39796</v>
+      </c>
+      <c r="B57" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D57" s="1">
+        <v>2</v>
+      </c>
+      <c r="E57" s="1">
+        <v>417</v>
+      </c>
+      <c r="F57" s="1">
+        <v>417</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="1">
+        <v>39795</v>
+      </c>
+      <c r="B58" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D58" s="1">
+        <v>2</v>
+      </c>
+      <c r="E58" s="1">
+        <v>1058</v>
+      </c>
+      <c r="F58" s="1">
+        <v>1058</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="1">
+        <v>39794</v>
+      </c>
+      <c r="B59" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D59" s="1">
+        <v>3</v>
+      </c>
+      <c r="E59" s="1">
+        <v>1188</v>
+      </c>
+      <c r="F59" s="1">
+        <v>1188</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="1">
+        <v>39793</v>
+      </c>
+      <c r="B60" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D60" s="1">
+        <v>2</v>
+      </c>
+      <c r="E60" s="1">
+        <v>688</v>
+      </c>
+      <c r="F60" s="1">
+        <v>688</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="1">
+        <v>39792</v>
+      </c>
+      <c r="B61" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D61" s="1">
+        <v>3</v>
+      </c>
+      <c r="E61" s="1">
+        <v>688.9</v>
+      </c>
+      <c r="F61" s="1">
+        <v>688.9</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="1">
+        <v>39791</v>
+      </c>
+      <c r="B62" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D62" s="1">
+        <v>1</v>
+      </c>
+      <c r="E62" s="1">
+        <v>205</v>
+      </c>
+      <c r="F62" s="1">
+        <v>205</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="1">
+        <v>39790</v>
+      </c>
+      <c r="B63" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D63" s="1">
+        <v>2</v>
+      </c>
+      <c r="E63" s="1">
+        <v>580</v>
+      </c>
+      <c r="F63" s="1">
+        <v>580</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="1">
+        <v>39789</v>
+      </c>
+      <c r="B64" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D64" s="1">
+        <v>3</v>
+      </c>
+      <c r="E64" s="1">
+        <v>336</v>
+      </c>
+      <c r="F64" s="1">
+        <v>336</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="1">
+        <v>39788</v>
+      </c>
+      <c r="B65" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D65" s="1">
+        <v>2</v>
+      </c>
+      <c r="E65" s="1">
+        <v>858</v>
+      </c>
+      <c r="F65" s="1">
+        <v>858</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="1">
+        <v>39787</v>
+      </c>
+      <c r="B66" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D66" s="1">
+        <v>2</v>
+      </c>
+      <c r="E66" s="1">
+        <v>235</v>
+      </c>
+      <c r="F66" s="1">
+        <v>235</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="1">
+        <v>39786</v>
+      </c>
+      <c r="B67" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D67" s="1">
+        <v>3</v>
+      </c>
+      <c r="E67" s="1">
+        <v>970</v>
+      </c>
+      <c r="F67" s="1">
+        <v>970</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="1">
+        <v>39785</v>
+      </c>
+      <c r="B68" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D68" s="1">
+        <v>2</v>
+      </c>
+      <c r="E68" s="1">
+        <v>768</v>
+      </c>
+      <c r="F68" s="1">
+        <v>768</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="1">
+        <v>39784</v>
+      </c>
+      <c r="B69" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D69" s="1">
+        <v>3</v>
+      </c>
+      <c r="E69" s="1">
+        <v>510</v>
+      </c>
+      <c r="F69" s="1">
+        <v>510</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="1">
+        <v>39783</v>
+      </c>
+      <c r="B70" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D70" s="1">
+        <v>2</v>
+      </c>
+      <c r="E70" s="1">
+        <v>964</v>
+      </c>
+      <c r="F70" s="1">
+        <v>964</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="1">
+        <v>39782</v>
+      </c>
+      <c r="B71" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D71" s="1">
+        <v>2</v>
+      </c>
+      <c r="E71" s="1">
+        <v>234</v>
+      </c>
+      <c r="F71" s="1">
+        <v>234</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="1">
+        <v>39780</v>
+      </c>
+      <c r="B72" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D72" s="1">
+        <v>2</v>
+      </c>
+      <c r="E72" s="1">
+        <v>974</v>
+      </c>
+      <c r="F72" s="1">
+        <v>974</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="1">
+        <v>39779</v>
+      </c>
+      <c r="B73" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D73" s="1">
+        <v>2</v>
+      </c>
+      <c r="E73" s="1">
+        <v>181</v>
+      </c>
+      <c r="F73" s="1">
+        <v>181</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="1">
+        <v>39778</v>
+      </c>
+      <c r="B74" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D74" s="1">
+        <v>3</v>
+      </c>
+      <c r="E74" s="1">
+        <v>604</v>
+      </c>
+      <c r="F74" s="1">
+        <v>604</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" s="1">
+        <v>39777</v>
+      </c>
+      <c r="B75" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D75" s="1">
+        <v>3</v>
+      </c>
+      <c r="E75" s="1">
+        <v>934</v>
+      </c>
+      <c r="F75" s="1">
+        <v>934</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" s="1">
+        <v>39776</v>
+      </c>
+      <c r="B76" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D76" s="1">
+        <v>2</v>
+      </c>
+      <c r="E76" s="1">
+        <v>515</v>
+      </c>
+      <c r="F76" s="1">
+        <v>515</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" s="1">
+        <v>39774</v>
+      </c>
+      <c r="B77" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D77" s="1">
+        <v>3</v>
+      </c>
+      <c r="E77" s="1">
+        <v>932</v>
+      </c>
+      <c r="F77" s="1">
+        <v>932</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" s="1">
+        <v>39773</v>
+      </c>
+      <c r="B78" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D78" s="1">
+        <v>2</v>
+      </c>
+      <c r="E78" s="1">
+        <v>598</v>
+      </c>
+      <c r="F78" s="1">
+        <v>598</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" s="1">
+        <v>39772</v>
+      </c>
+      <c r="B79" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D79" s="1">
+        <v>3</v>
+      </c>
+      <c r="E79" s="1">
+        <v>277</v>
+      </c>
+      <c r="F79" s="1">
+        <v>277</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="1">
+        <v>39771</v>
+      </c>
+      <c r="B80" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D80" s="1">
+        <v>2</v>
+      </c>
+      <c r="E80" s="1">
+        <v>258</v>
+      </c>
+      <c r="F80" s="1">
+        <v>258</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" s="1">
+        <v>39770</v>
+      </c>
+      <c r="B81" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D81" s="1">
+        <v>2</v>
+      </c>
+      <c r="E81" s="1">
+        <v>406</v>
+      </c>
+      <c r="F81" s="1">
+        <v>406</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" s="1">
+        <v>39769</v>
+      </c>
+      <c r="B82" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D82" s="1">
+        <v>2</v>
+      </c>
+      <c r="E82" s="1">
+        <v>1425</v>
+      </c>
+      <c r="F82" s="1">
+        <v>1425</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" s="1">
+        <v>39765</v>
+      </c>
+      <c r="B83" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D83" s="1">
+        <v>2</v>
+      </c>
+      <c r="E83" s="1">
+        <v>179</v>
+      </c>
+      <c r="F83" s="1">
+        <v>179</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" s="1">
+        <v>39764</v>
+      </c>
+      <c r="B84" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D84" s="1">
+        <v>3</v>
+      </c>
+      <c r="E84" s="1">
+        <v>269</v>
+      </c>
+      <c r="F84" s="1">
+        <v>269</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" s="1">
+        <v>39763</v>
+      </c>
+      <c r="B85" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D85" s="1">
+        <v>2</v>
+      </c>
+      <c r="E85" s="1">
+        <v>112</v>
+      </c>
+      <c r="F85" s="1">
+        <v>112</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
